--- a/input/indicators/BDS DAK_indicators.xlsx
+++ b/input/indicators/BDS DAK_indicators.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooin\Documents\Documents\Work\Inis\Salisa Dec 2024\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A35B54E-CDCE-401B-A898-3CBE1FEEEF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4A35B54E-CDCE-401B-A898-3CBE1FEEEF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B247977-F091-4640-8A37-4A662C5A7178}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="24330" windowHeight="17610" activeTab="2" xr2:uid="{EE9E8A84-BAF1-7F45-8099-99C2E8747F98}"/>
+    <workbookView xWindow="17532" yWindow="2736" windowWidth="17280" windowHeight="12204" xr2:uid="{EE9E8A84-BAF1-7F45-8099-99C2E8747F98}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -200,11 +195,6 @@
 If any guidelines or recommendations change, having a clear reference list will help in updating or restructuring data and indicators</t>
   </si>
   <si>
-    <t xml:space="preserve">https://smart.who.int/dak-bds/v0.9.9/BDS DAK_indicators.xlsx
-© World Health Organization 2025. Some rights reserved. This work is available under the
-</t>
-  </si>
-  <si>
     <t>CC BY-NC-SA 3.0 IGO licence</t>
   </si>
   <si>
@@ -1419,12 +1409,17 @@
       <t>All references were accessed on 1 July 2024.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">https://smart.who.int/dak-bds/v1.0.0/BDS DAK_indicators.xlsx
+© World Health Organization 2025. Some rights reserved. This work is available under the
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1649,6 +1644,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1808,10 +1809,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1908,12 +1912,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1950,10 +1948,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{6E858E76-5B5F-4C04-B1A8-E020BB9FF5BD}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="3" xr:uid="{F44792DC-88F2-4BC9-9074-3ABC87FE62CE}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{1D9D46DE-359E-4C3F-AC8E-3FC61E519921}"/>
   </cellStyles>
   <dxfs count="1">
@@ -2337,68 +2342,68 @@
   </sheetPr>
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="60.125" customWidth="1"/>
-    <col min="5" max="5" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="60.09765625" customWidth="1"/>
+    <col min="5" max="5" width="41.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="2:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="2:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="2:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="2:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="2:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="2:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
         <v>0</v>
       </c>
@@ -2406,8 +2411,8 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +2424,7 @@
       </c>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="2:5" ht="48.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>4</v>
       </c>
@@ -2429,7 +2434,7 @@
       </c>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
         <v>6</v>
       </c>
@@ -2439,27 +2444,27 @@
       </c>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="2:5" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="2:5" ht="44.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="2:5" ht="44.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="35"/>
-    </row>
-    <row r="17" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
@@ -2469,57 +2474,57 @@
       </c>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21"/>
       <c r="C22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="2:5" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
@@ -2529,7 +2534,7 @@
       </c>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="2:5" ht="78.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="78.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
@@ -2539,7 +2544,7 @@
       </c>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="2:5" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="s">
         <v>28</v>
       </c>
@@ -2549,55 +2554,55 @@
       </c>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="2:5" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="2:5" ht="77.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="2:5" ht="77.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="2:5" ht="48.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="2:5" ht="63.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="2:5" ht="63.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="2:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="24" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2628,7 +2633,8 @@
     <hyperlink ref="E31" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/3.0/igo" xr:uid="{9DFF35C5-1E6C-463E-A543-6500150ACD92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2643,1529 +2649,1529 @@
       <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="19" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="28.625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="32.125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="15"/>
+    <col min="6" max="6" width="19.59765625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="27.09765625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="32.09765625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="16.59765625" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="10.59765625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="41" t="s">
+    </row>
+    <row r="2" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-    </row>
-    <row r="4" spans="2:11" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="11" t="s">
+    </row>
+    <row r="5" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="G6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="G7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="G9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="G13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I13" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="127.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="G14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I14" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="G16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I16" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="G17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I17" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="G18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I18" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="G19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="G21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I21" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="G22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I22" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="G23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I23" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="2:11" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="2:11" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="G25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I25" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="127.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="G26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I26" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="G27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I27" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="G30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I30" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="G32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I32" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="G34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I34" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="127.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>191</v>
-      </c>
       <c r="G35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I35" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="G36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I36" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="127.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>201</v>
-      </c>
       <c r="G37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I37" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="127.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="G38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I38" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="127.5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="G39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I39" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="G41" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I41" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>222</v>
-      </c>
       <c r="G42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I42" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-    </row>
-    <row r="46" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>235</v>
-      </c>
       <c r="G46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I46" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="F47" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>240</v>
-      </c>
       <c r="G47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I47" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="F48" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>245</v>
-      </c>
       <c r="G48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I48" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="114.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="F49" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>250</v>
-      </c>
       <c r="G49" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I49" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+    </row>
+    <row r="51" spans="2:11" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-    </row>
-    <row r="51" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="D51" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="E51" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="F51" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="G51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I51" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+    </row>
+    <row r="53" spans="2:11" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-    </row>
-    <row r="53" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="35" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="37" t="s">
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="2:11" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-    </row>
-    <row r="55" spans="2:11" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="E55" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="F55" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="G55" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="H55" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="D56" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="E56" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="F56" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="G56" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="I56" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="E57" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="F57" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="G57" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="H57" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="I57" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="51" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="D58" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="E58" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="F58" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="G58" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="H58" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="K59" s="18"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -4209,356 +4215,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F49149-279C-9443-A9CA-21E0EB7C8946}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="72.125" customWidth="1"/>
-    <col min="3" max="3" width="56.625" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="72.09765625" customWidth="1"/>
+    <col min="3" max="3" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E5D7E4D767EA44DB67598A7847D015A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bf388df9b51118259be82153505b8e4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f052330-ac71-4f18-b028-73a9a7b07a91" xmlns:ns3="dcec2ec8-41a3-4e60-a096-927e8d25b587" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b3255ada7fe51a21f4342bb3d09e665" ns2:_="" ns3:_="">
-    <xsd:import namespace="3f052330-ac71-4f18-b028-73a9a7b07a91"/>
-    <xsd:import namespace="dcec2ec8-41a3-4e60-a096-927e8d25b587"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3f052330-ac71-4f18-b028-73a9a7b07a91" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="aa4eac88-8ae6-4a96-90c7-97bc93c844ef" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dcec2ec8-41a3-4e60-a096-927e8d25b587" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e24d8d70-ece9-4f89-a27d-7cb5984d9c48}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="dcec2ec8-41a3-4e60-a096-927e8d25b587">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3f052330-ac71-4f18-b028-73a9a7b07a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dcec2ec8-41a3-4e60-a096-927e8d25b587" xsi:nil="true"/>
-    <SharedWithUsers xmlns="dcec2ec8-41a3-4e60-a096-927e8d25b587">
-      <UserInfo>
-        <DisplayName>CORMAN, Constantin</DisplayName>
-        <AccountId>42</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61D5E287-1324-4ED7-BB5E-4F89E2AF7A7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3f052330-ac71-4f18-b028-73a9a7b07a91"/>
-    <ds:schemaRef ds:uri="dcec2ec8-41a3-4e60-a096-927e8d25b587"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998F0496-259D-45EF-8A71-B299FD9D7E9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA10BCB1-1E03-4B05-9566-A3A191BDFEA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f052330-ac71-4f18-b028-73a9a7b07a91"/>
-    <ds:schemaRef ds:uri="dcec2ec8-41a3-4e60-a096-927e8d25b587"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input/indicators/BDS DAK_indicators.xlsx
+++ b/input/indicators/BDS DAK_indicators.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4A35B54E-CDCE-401B-A898-3CBE1FEEEF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B247977-F091-4640-8A37-4A662C5A7178}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06175018-267F-4644-8A7D-8A8325311754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17532" yWindow="2736" windowWidth="17280" windowHeight="12204" xr2:uid="{EE9E8A84-BAF1-7F45-8099-99C2E8747F98}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE9E8A84-BAF1-7F45-8099-99C2E8747F98}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="307">
   <si>
     <t>Digital adaptation kit for birth defects surveillance: operational requirements for implementing WHO recommendations in digital systems
 Indicators table</t>
@@ -193,9 +193,6 @@
   <si>
     <t>National, regional or global guidelines that dictate how and why this indicator should be calculated or reported are noted here (e.g. WHO guidelines)
 If any guidelines or recommendations change, having a clear reference list will help in updating or restructuring data and indicators</t>
-  </si>
-  <si>
-    <t>CC BY-NC-SA 3.0 IGO licence</t>
   </si>
   <si>
     <t>Indicator ID</t>
@@ -1410,16 +1407,85 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://smart.who.int/dak-bds/v1.0.0/BDS DAK_indicators.xlsx
-© World Health Organization 2025. Some rights reserved. This work is available under the
+    <r>
+      <t xml:space="preserve">https://smart.who.int/dak-bds/v1.0.0/BDS DAK_indicators.xlsx
+This work is available under the Creative Commons Attribution-NonCommercial-ShareAlike 3.0 IGO licence (CC BY-NC-SA 3.0 IGO https://creativecommons.org/%20licenses/by-nc-sa/3.0/igo).
+Under the terms of this licence, you may copy, redistribute and adapt the work for non-commercial purposes, provided the work is appropriately cited, as indicated below. In any use of this work, there should be no suggestion that WHO endorses any specific organization, products or services. The use of the WHO logo is not permitted. If you adapt the work, then you must license your work under the same or equivalent Creative Commons licence. 
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suggested citation.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Digital adaptation kit for birth defects surveillance: operational requirements for implementing WHO recommendations in digital systems. Geneva: World Health Organization; 2025 (SMART Guidelines collection). https://iris.who.int/handle/10665/381620. Licence: CC BY-NC-SA 3.0 IGO. 
+If you create a translation or adaptation of this work, you should add the following disclaimer along with the suggested citation: “This translation/adaptation was not created by the World Health Organization (WHO). WHO is not responsible for the content or accuracy of this translation/adaptation. The original English edition shall be the binding and authentic edition”. 
+If you would like to develop your own Digital Adaptation Kit or create an implementation guide based on this DAK, you can access the SMART Guidelines templates here https://smart.who.int/ig-starter-kit/.
+Any mediation relating to disputes arising under the licence shall be conducted in accordance with the mediation rules of the World Intellectual Property Organization https://www.wipo.int/amc/en/mediation/rules
+To submit requests for commercial use and queries on rights and licensing, see https://www.who.int/copyright
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Third-party materials. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">If you wish to reuse material from this work that is attributed to a third party, such as tables, figures or images, it is your responsibility to determine whether permission is needed for that reuse and to obtain permission from the copyright holder. The risk of claims resulting from infringement of any third-party-owned component in the work rests solely with the user. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">General disclaimers. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The designations employed and the presentation of the material in this publication do not imply the expression of any opinion whatsoever on the part of WHO concerning the legal status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontiers or boundaries. Dotted and dashed lines on maps represent approximate border lines for which there may not yet be full agreement. 
+The mention of specific companies or of certain manufacturers’ products does not imply that they are endorsed or recommended by WHO in preference to others of a similar nature that are not mentioned. Errors and omissions excepted, the names of proprietary products are distinguished by initial capital letters. 
+All reasonable precautions have been taken by WHO to verify the information contained in this publication. However, the published material is being distributed without warranty of any kind, either expressed or implied. The responsibility for the interpretation and use of the material lies with the reader. In no event shall WHO be liable for damages arising from its use.
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1630,14 +1696,6 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1813,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -1888,15 +1946,21 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1947,12 +2011,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2342,272 +2400,278 @@
   </sheetPr>
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:D31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" customWidth="1"/>
-    <col min="4" max="4" width="60.09765625" customWidth="1"/>
-    <col min="5" max="5" width="41.09765625" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" customWidth="1"/>
+    <col min="4" max="4" width="60.08203125" customWidth="1"/>
+    <col min="5" max="5" width="41.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="2:5" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="2:5" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="2:5" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="2:5" ht="44.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="2:5" ht="44.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="21"/>
       <c r="C22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="21"/>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="2:5" ht="78.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="2:5" ht="78.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="2:5" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="2:5" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="2:5" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="2:5" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="2:5" ht="77.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="2:5" ht="77.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="2:5" ht="63.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="2:5" ht="63.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="34"/>
-    </row>
-    <row r="30" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="24" t="s">
-        <v>38</v>
-      </c>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="2:5" ht="16" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="2:5" ht="287.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D21:E21"/>
@@ -2618,23 +2682,10 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B2:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E31" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/3.0/igo" xr:uid="{9DFF35C5-1E6C-463E-A543-6500150ACD92}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2642,1536 +2693,1536 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F3FEC-F9FE-FD4C-B16F-BAE25B6EE299}">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="31.09765625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.58203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="31.08203125" style="19" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="27.09765625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="32.09765625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="10.59765625" style="15"/>
+    <col min="6" max="6" width="19.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="27.08203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="28.58203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="32.08203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="16.58203125" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="10.58203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="39" t="s">
+    </row>
+    <row r="2" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="11" t="s">
+    </row>
+    <row r="5" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="G7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="G8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="G9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="G13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="138" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="130" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="G14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="G16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I16" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="G17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="G18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="G19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I19" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="G21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I21" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="110.4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B22" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="G22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I22" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="G23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I23" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="2:11" ht="143" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="2:11" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="G25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="138" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="130" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="G26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="G27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B30" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="G30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I30" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-    </row>
-    <row r="32" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="G32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I32" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B34" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-    </row>
-    <row r="34" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="G34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I34" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="138" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="130" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="G35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I35" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B36" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="G36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I36" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="138" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="130" x14ac:dyDescent="0.35">
       <c r="B37" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="G37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I37" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="138" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="130" x14ac:dyDescent="0.35">
       <c r="B38" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="G38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I38" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="138" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="130" x14ac:dyDescent="0.35">
       <c r="B39" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>210</v>
-      </c>
       <c r="G39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I39" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+    </row>
+    <row r="41" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B41" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-    </row>
-    <row r="41" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>216</v>
-      </c>
       <c r="G41" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B42" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="G42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+    </row>
+    <row r="44" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B44" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-    </row>
-    <row r="44" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+    </row>
+    <row r="46" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="B46" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-    </row>
-    <row r="46" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>234</v>
-      </c>
       <c r="G46" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I46" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B47" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="F47" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>239</v>
-      </c>
       <c r="G47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I47" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B48" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="F48" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>244</v>
-      </c>
       <c r="G48" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I48" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="117" x14ac:dyDescent="0.35">
       <c r="B49" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="F49" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>249</v>
-      </c>
       <c r="G49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I49" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+    </row>
+    <row r="51" spans="2:11" ht="91" x14ac:dyDescent="0.35">
+      <c r="B51" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-    </row>
-    <row r="51" spans="2:11" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="D51" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="E51" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="F51" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="G51" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="I51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B52" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+    </row>
+    <row r="53" spans="2:11" ht="91" x14ac:dyDescent="0.35">
+      <c r="B53" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-    </row>
-    <row r="53" spans="2:11" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="37" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="35" t="s">
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="2:11" ht="78" x14ac:dyDescent="0.35">
+      <c r="B55" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-    </row>
-    <row r="55" spans="2:11" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="E55" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="F55" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="G55" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="H55" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="D56" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="E56" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="F56" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="G56" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="I56" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="E57" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="F57" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="G57" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="H57" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="I57" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="55.2" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="52" x14ac:dyDescent="0.35">
       <c r="B58" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="D58" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="E58" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="F58" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="G58" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="H58" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>295</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="K59" s="18"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -4215,70 +4266,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F49149-279C-9443-A9CA-21E0EB7C8946}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="72.09765625" customWidth="1"/>
-    <col min="3" max="3" width="56.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="72.08203125" customWidth="1"/>
+    <col min="3" max="3" width="56.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.35">
+      <c r="B7" s="23" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/input/indicators/BDS DAK_indicators.xlsx
+++ b/input/indicators/BDS DAK_indicators.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06175018-267F-4644-8A7D-8A8325311754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4A35B54E-CDCE-401B-A898-3CBE1FEEEF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B247977-F091-4640-8A37-4A662C5A7178}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE9E8A84-BAF1-7F45-8099-99C2E8747F98}"/>
+    <workbookView xWindow="17532" yWindow="2736" windowWidth="17280" windowHeight="12204" xr2:uid="{EE9E8A84-BAF1-7F45-8099-99C2E8747F98}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="308">
   <si>
     <t>Digital adaptation kit for birth defects surveillance: operational requirements for implementing WHO recommendations in digital systems
 Indicators table</t>
@@ -193,6 +193,9 @@
   <si>
     <t>National, regional or global guidelines that dictate how and why this indicator should be calculated or reported are noted here (e.g. WHO guidelines)
 If any guidelines or recommendations change, having a clear reference list will help in updating or restructuring data and indicators</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 3.0 IGO licence</t>
   </si>
   <si>
     <t>Indicator ID</t>
@@ -1407,85 +1410,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">https://smart.who.int/dak-bds/v1.0.0/BDS DAK_indicators.xlsx
-This work is available under the Creative Commons Attribution-NonCommercial-ShareAlike 3.0 IGO licence (CC BY-NC-SA 3.0 IGO https://creativecommons.org/%20licenses/by-nc-sa/3.0/igo).
-Under the terms of this licence, you may copy, redistribute and adapt the work for non-commercial purposes, provided the work is appropriately cited, as indicated below. In any use of this work, there should be no suggestion that WHO endorses any specific organization, products or services. The use of the WHO logo is not permitted. If you adapt the work, then you must license your work under the same or equivalent Creative Commons licence. 
+    <t xml:space="preserve">https://smart.who.int/dak-bds/v1.0.0/BDS DAK_indicators.xlsx
+© World Health Organization 2025. Some rights reserved. This work is available under the
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Suggested citation.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Digital adaptation kit for birth defects surveillance: operational requirements for implementing WHO recommendations in digital systems. Geneva: World Health Organization; 2025 (SMART Guidelines collection). https://iris.who.int/handle/10665/381620. Licence: CC BY-NC-SA 3.0 IGO. 
-If you create a translation or adaptation of this work, you should add the following disclaimer along with the suggested citation: “This translation/adaptation was not created by the World Health Organization (WHO). WHO is not responsible for the content or accuracy of this translation/adaptation. The original English edition shall be the binding and authentic edition”. 
-If you would like to develop your own Digital Adaptation Kit or create an implementation guide based on this DAK, you can access the SMART Guidelines templates here https://smart.who.int/ig-starter-kit/.
-Any mediation relating to disputes arising under the licence shall be conducted in accordance with the mediation rules of the World Intellectual Property Organization https://www.wipo.int/amc/en/mediation/rules
-To submit requests for commercial use and queries on rights and licensing, see https://www.who.int/copyright
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Third-party materials. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">If you wish to reuse material from this work that is attributed to a third party, such as tables, figures or images, it is your responsibility to determine whether permission is needed for that reuse and to obtain permission from the copyright holder. The risk of claims resulting from infringement of any third-party-owned component in the work rests solely with the user. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">General disclaimers. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The designations employed and the presentation of the material in this publication do not imply the expression of any opinion whatsoever on the part of WHO concerning the legal status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontiers or boundaries. Dotted and dashed lines on maps represent approximate border lines for which there may not yet be full agreement. 
-The mention of specific companies or of certain manufacturers’ products does not imply that they are endorsed or recommended by WHO in preference to others of a similar nature that are not mentioned. Errors and omissions excepted, the names of proprietary products are distinguished by initial capital letters. 
-All reasonable precautions have been taken by WHO to verify the information contained in this publication. However, the published material is being distributed without warranty of any kind, either expressed or implied. The responsibility for the interpretation and use of the material lies with the reader. In no event shall WHO be liable for damages arising from its use.
-</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1696,6 +1630,14 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1871,7 +1813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
@@ -1946,71 +1888,71 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2400,278 +2342,272 @@
   </sheetPr>
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:D31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.08203125" customWidth="1"/>
-    <col min="2" max="2" width="22.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" customWidth="1"/>
-    <col min="4" max="4" width="60.08203125" customWidth="1"/>
-    <col min="5" max="5" width="41.08203125" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="60.09765625" customWidth="1"/>
+    <col min="5" max="5" width="41.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-    </row>
-    <row r="4" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="2:5" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="2:5" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="2:5" s="9" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="2:5" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="2:5" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="2:5" ht="44.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="2:5" ht="44.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="35"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21"/>
       <c r="C22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="21"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="2:5" ht="78.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="2:5" ht="78.900000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="2:5" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="2:5" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="2:5" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="2:5" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="2:5" ht="77.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="2:5" ht="77.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="2:5" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="2:5" ht="63.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="2:5" ht="63.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="2:5" ht="16" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:5" ht="287.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="2:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B2:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D21:E21"/>
@@ -2682,10 +2618,23 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E31" r:id="rId1" display="https://creativecommons.org/licenses/by-nc-sa/3.0/igo" xr:uid="{9DFF35C5-1E6C-463E-A543-6500150ACD92}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2693,1536 +2642,1536 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F3FEC-F9FE-FD4C-B16F-BAE25B6EE299}">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.58203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="31.08203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="19" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="27.08203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="28.58203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="32.08203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="16.58203125" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="10.58203125" style="15"/>
+    <col min="6" max="6" width="19.59765625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="27.09765625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="32.09765625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="16.59765625" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="10.59765625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="41" t="s">
+    <row r="1" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="41" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="K1" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-    </row>
-    <row r="4" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="138" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="130" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="2:11" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="2:11" ht="143" x14ac:dyDescent="0.35">
-      <c r="B25" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="138" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="130" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="130" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="130" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="130" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="130" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="138" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B41" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B42" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="14.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-    </row>
-    <row r="46" spans="2:11" ht="117" x14ac:dyDescent="0.35">
-      <c r="B46" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="117" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+    </row>
+    <row r="51" spans="2:11" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-    </row>
-    <row r="51" spans="2:11" ht="91" x14ac:dyDescent="0.35">
-      <c r="B51" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-    </row>
-    <row r="53" spans="2:11" ht="91" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+    </row>
+    <row r="53" spans="2:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-    </row>
-    <row r="55" spans="2:11" ht="78" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="2:11" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="52" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="K59" s="18"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -4266,68 +4215,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F49149-279C-9443-A9CA-21E0EB7C8946}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="2" max="2" width="72.08203125" customWidth="1"/>
-    <col min="3" max="3" width="56.58203125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="72.09765625" customWidth="1"/>
+    <col min="3" max="3" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="24">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>299</v>
+      <c r="B3" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>301</v>
+      <c r="B4" s="26" t="s">
+        <v>302</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="24">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>303</v>
+      <c r="B5" s="26" t="s">
+        <v>304</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
